--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelWriteTestDataFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>
